--- a/Output/2024-06-25/2024-06-25_esiti_positivi.xlsx
+++ b/Output/2024-06-25/2024-06-25_esiti_positivi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sistemiainfo-my.sharepoint.com/personal/claudia_esposito_iqera_it/Documents/Documenti/Scraping_ade/Output/2024-06-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_5905B8628053920E62355476585DCE3A874D92B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FDF180B-B4A1-477C-850A-3F96AF6989FE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_5905B8628053920E62355476585DCE3A874D92B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C313E4-B41C-41B6-9944-6F7292C5C270}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="-2865" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13967,7 +13967,7 @@
   <dimension ref="A1:M863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M863"/>
+      <selection activeCell="D866" sqref="D866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16918,7 +16918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>3273</v>
       </c>
@@ -48918,7 +48918,7 @@
   <autoFilter ref="A1:M863" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CACCIATORE OTTAVIO"/>
+        <filter val="CRESCIOLI JURI"/>
       </filters>
     </filterColumn>
     <filterColumn colId="12">
